--- a/FacebookCatalog/Ddivas/remo_ddiv--produtos--Iluria__imagens.xlsx
+++ b/FacebookCatalog/Ddivas/remo_ddiv--produtos--Iluria__imagens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Google Drive\Remo\Clientes\Ddivas\Produtos\Iluria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Documents\Remo (web)\remo\FacebookCatalog\Ddivas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,84 +122,92 @@
     <t>//s3.amazonaws.com/img.iluria.com/product/65ACC6/FA7217/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65ACC6/FA7215/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/656587/F9B8F7/330xN.jpg</t>
   </si>
   <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65ACEB/FA7266/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65ACEB/FA7265/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/655C96/F99F70/330xN.jpg</t>
   </si>
   <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65AD0F/FA72E4/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65AD0F/FA72E3/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/655C79/F99FE9/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/655C79/F99F2E/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65AC79/FA7161/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65AC79/FA715F/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/655BF3/F99DAB/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/655BF3/F99DA9/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65AC91/FA718B/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65AC91/FA7189/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/655C0F/F99E0D/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/655C0F/F99E0B/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65AC51/FA7103/330xN.jpg</t>
   </si>
   <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65D141/FACF24/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65D141/FACF18/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65D1FB/FAD0E3/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65D1FB/FAD0E2/330xN.jpg</t>
-  </si>
-  <si>
     <t>//s3.amazonaws.com/img.iluria.com/product/65D211/FAD123/330xN.jpg</t>
   </si>
   <si>
-    <t>//s3.amazonaws.com/img.iluria.com/product/65D211/FAD121/330xN.jpg</t>
+    <t>//s3.amazonaws.com/img.iluria.com/product/660514/FB5833/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/660500/FB57ED/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/6604F2/FB57BA/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/6604E0/FB5794/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/6604C7/FB5755/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/6604BE/FB573A/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/660449/FB5613/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/65FA20/FB3BA6/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/65F9FF/FB3B58/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/65F9E9/FB3B0D/330xN.jpg</t>
+  </si>
+  <si>
+    <t>//s3.amazonaws.com/img.iluria.com/product/65F998/FB3A14/330xN.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,8 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -523,216 +530,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
+      <c r="A1" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B64" si="0">MID(A1,43,6)</f>
-        <v>65D211</v>
+        <v>660514</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:C64" si="1">MID(A1,43,FIND("/",A1,42)-29)</f>
-        <v>65D211/FAD123</v>
+        <v>660514/FB5833</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v>65D211</v>
+        <v>660500</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="1"/>
-        <v>65D211/FAD121</v>
+        <v>660500/FB57ED</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>65D211</v>
+        <v>6604F2</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>65D211/FAD123</v>
+        <v>6604F2/FB57BA</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>65D1FB</v>
+        <v>6604E0</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>65D1FB/FAD0E3</v>
+        <v>6604E0/FB5794</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>65D1FB</v>
+        <v>6604C7</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>65D1FB/FAD0E2</v>
+        <v>6604C7/FB5755</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>65D1FB</v>
+        <v>6604BE</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>65D1FB/FAD0E3</v>
+        <v>6604BE/FB573A</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>65D141</v>
+        <v>660449</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>65D141/FACF24</v>
+        <v>660449/FB5613</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>65D141</v>
+        <v>65FA20</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>65D141/FACF18</v>
+        <v>65FA20/FB3BA6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>65D141</v>
+        <v>65F9FF</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>65D141/FACF24</v>
+        <v>65F9FF/FB3B58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>65AC51</v>
+        <v>65F9E9</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>65AC51/FA7103</v>
+        <v>65F9E9/FB3B0D</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>65AC51</v>
+        <v>65F998</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>65AC51/FA7103</v>
+        <v>65F998/FB3A14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>65AC51</v>
+        <v>65D211</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>65AC51/FA7103</v>
+        <v>65D211/FAD123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>655C0F</v>
+        <v>65D1FB</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>655C0F/F99E0D</v>
+        <v>65D1FB/FAD0E3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>655C0F</v>
+        <v>65D141</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>655C0F/F99E0B</v>
+        <v>65D141/FACF24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>655C0F</v>
+        <v>65AC51</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>655C0F/F99E0D</v>
+        <v>65AC51/FA7103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>65AC91</v>
+        <v>655C0F</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>65AC91/FA718B</v>
+        <v>655C0F/F99E0D</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -740,345 +747,345 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>65AC91/FA7189</v>
+        <v>65AC91/FA718B</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>65AC91</v>
+        <v>655BF3</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>65AC91/FA718B</v>
+        <v>655BF3/F99DAB</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>655BF3</v>
+        <v>65AC79</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>655BF3/F99DAB</v>
+        <v>65AC79/FA7161</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>655BF3</v>
+        <v>655C79</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>655BF3/F99DA9</v>
+        <v>655C79/F99FE9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>655BF3</v>
+        <v>65AD0F</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>655BF3/F99DAB</v>
+        <v>65AD0F/FA72E4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>65AC79</v>
+        <v>655C96</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>65AC79/FA7161</v>
+        <v>655C96/F99F70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>65AC79</v>
+        <v>65ACEB</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>65AC79/FA715F</v>
+        <v>65ACEB/FA7266</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>65AC79</v>
+        <v>656587</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>65AC79/FA7161</v>
+        <v>656587/F9B8F7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>655C79</v>
+        <v>65ACC6</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>655C79/F99FE9</v>
+        <v>65ACC6/FA7217</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>655C79</v>
+        <v>655CF9</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>655C79/F99F2E</v>
+        <v>655CF9/F9A068</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>655C79</v>
+        <v>65ACE1</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>655C79/F99FE9</v>
+        <v>65ACE1/FA7250</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>65AD0F</v>
+        <v>6565C5</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>65AD0F/FA72E4</v>
+        <v>6565C5/F9B9A7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>65AD0F</v>
+        <v>65ACFF</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>65AD0F/FA72E3</v>
+        <v>65ACFF/FA72B0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>65AD0F</v>
+        <v>655C6F</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>65AD0F/FA72E4</v>
+        <v>655C6F/F99F0C</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>655C96</v>
+        <v>65AD1D</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>655C96/F99F70</v>
+        <v>65AD1D/FA730E</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>655C96</v>
+        <v>65657C</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>655C96/F99F70</v>
+        <v>65657C/F9B8CB</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>655C96</v>
+        <v>65ACF4</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>655C96/F99F70</v>
+        <v>65ACF4/FA727E</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>65ACEB</v>
+        <v>631A28</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>65ACEB/FA7266</v>
+        <v>631A28/F3D082</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>65ACEB</v>
+        <v>65ACCF</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>65ACEB/FA7265</v>
+        <v>65ACCF/FA722C</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>65ACEB</v>
+        <v>631AC2</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>65ACEB/FA7266</v>
+        <v>631AC2/F3D1D0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>656587</v>
+        <v>65ACB4</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>656587/F9B8F7</v>
+        <v>65ACB4/FA71E1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>656587</v>
+        <v>631B4E</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>656587/F9B8F7</v>
+        <v>631B4E/F3D38F</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>656587</v>
+        <v>65ACC2</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>656587/F9B8F7</v>
+        <v>65ACC2/FA7209</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>65ACC6</v>
+        <v>60D41C</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>65ACC6/FA7217</v>
+        <v>60D41C/EDBE23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>65ACC6</v>
+        <v>65AC3C</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>65ACC6/FA7215</v>
+        <v>65AC3C/FA70DE</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>65ACC6</v>
+        <v>631B35</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>65ACC6/FA7217</v>
+        <v>631B35/F3D337</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>655CF9</v>
+        <v>655CE8</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>655CF9/F9A068</v>
+        <v>655CE8/F9A03C</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4652,7 +4659,7 @@
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" t="str">
-        <f t="shared" ref="B385:B448" si="12">MID(A385,43,6)</f>
+        <f t="shared" ref="B385:B400" si="12">MID(A385,43,6)</f>
         <v/>
       </c>
       <c r="C385" t="e">
@@ -4812,5 +4819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>